--- a/src/test/resources/getconfig_solaris.xlsx
+++ b/src/test/resources/getconfig_solaris.xlsx
@@ -14,17 +14,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1606436944" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1606436944" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1606436944" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1606436944"/>
+      <pm:revision xmlns:pm="smNativeData" day="1606441477" val="978" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1606441477" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1606441477" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1606441477"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>共通設定</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Account01</t>
+  </si>
+  <si>
+    <t>solaris11</t>
+  </si>
+  <si>
+    <t>192.168.0.104</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606436944" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606441477" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -138,7 +144,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606436944" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606441477" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -154,7 +160,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1606436944" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1606441477" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -163,7 +169,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,7 +182,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606436944" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606441477" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -187,7 +193,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606436944" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606441477" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -198,7 +204,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606436944" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606441477" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -209,7 +215,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1606436944" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1606441477" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -220,8 +226,30 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1606441477" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1606441477" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -237,7 +265,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606436944"/>
+          <pm:border xmlns:pm="smNativeData" id="1606441477"/>
         </ext>
       </extLst>
     </border>
@@ -256,7 +284,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606436944">
+          <pm:border xmlns:pm="smNativeData" id="1606441477">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -280,7 +308,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606436944">
+          <pm:border xmlns:pm="smNativeData" id="1606441477">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -304,7 +332,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606436944">
+          <pm:border xmlns:pm="smNativeData" id="1606441477">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -327,7 +355,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606436944">
+          <pm:border xmlns:pm="smNativeData" id="1606441477">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -351,7 +379,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606436944">
+          <pm:border xmlns:pm="smNativeData" id="1606441477">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -375,7 +403,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1606436944">
+          <pm:border xmlns:pm="smNativeData" id="1606441477">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -383,6 +411,44 @@
         </ext>
       </extLst>
     </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1606441477"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1606441477"/>
+        </ext>
+      </extLst>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -407,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,9 +493,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,10 +541,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1606436944" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1606441477" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1606436944" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1606441477" count="3">
         <pm:color name="色 24" rgb="CCFFFF"/>
         <pm:color name="色 25" rgb="FFFFCC"/>
         <pm:color name="*20%灰色" rgb="000000"/>
@@ -758,7 +821,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606436944" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1606441477" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -767,16 +830,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606436944" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606436944" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606436944" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606436944" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1606441477" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1606441477" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606441477" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606441477" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606436944" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606441477" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -790,325 +853,333 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.045455" customWidth="1" style="7"/>
-    <col min="2" max="8" width="13.527273" customWidth="1" style="7"/>
-    <col min="9" max="9" width="44.245455" customWidth="1" style="7"/>
+    <col min="1" max="1" width="13.045455" customWidth="1" style="0"/>
+    <col min="2" max="8" width="13.527273" customWidth="1" style="0"/>
+    <col min="9" max="9" width="44.245455" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="15"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="15"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="15"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="15"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="15"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1119,7 +1190,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1606436944" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1606441477" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1130,16 +1201,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1606436944" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1606436944" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606436944" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1606436944" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1606441477" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1606441477" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606441477" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1606441477" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606436944" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1606441477" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
